--- a/Sorption Experiments/ExperimentDataTemplate _NoScript.xlsx
+++ b/Sorption Experiments/ExperimentDataTemplate _NoScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,12 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Calibration Data" sheetId="7" r:id="rId2"/>
+    <sheet name="Calibration Data" sheetId="9" r:id="rId2"/>
     <sheet name="Scintillation Counter Results" sheetId="3" r:id="rId3"/>
     <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId4"/>
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -139,9 +142,6 @@
     <t>dTotal Activity (Bq)</t>
   </si>
   <si>
-    <t>Known Activity (Bq)</t>
-  </si>
-  <si>
     <t>RaStd_0.01mL</t>
   </si>
   <si>
@@ -169,30 +169,6 @@
     <t>Scintillation Counter (cps)</t>
   </si>
   <si>
-    <t>Gamma Counter (CPS)</t>
-  </si>
-  <si>
-    <t>Error (CPS)</t>
-  </si>
-  <si>
-    <t>Known Activity (uCi)</t>
-  </si>
-  <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
-    <t>Gamma Counter Calculated Activity</t>
-  </si>
-  <si>
-    <t>Scint Counter Calculated Activity (Bq)</t>
-  </si>
-  <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -202,15 +178,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -232,9 +199,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -298,15 +262,6 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
-    <t>Parsons Gamma Counter</t>
-  </si>
-  <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -485,6 +440,39 @@
   </si>
   <si>
     <t>spH</t>
+  </si>
+  <si>
+    <t>Gamma counter measured activity (Corrected for Geometry, Bq)</t>
+  </si>
+  <si>
+    <t>Expected Activity (Bq)</t>
+  </si>
+  <si>
+    <t>Scint Counter Activity, with RaStock5</t>
+  </si>
+  <si>
+    <t>Error from Expected</t>
+  </si>
+  <si>
+    <t>Scint Counter Activity, without RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>Average Rel Error</t>
+  </si>
+  <si>
+    <t>Scintillation Counter Calibration</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq w/Background and RaStock5</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq without RaStock5</t>
   </si>
 </sst>
 </file>
@@ -557,7 +545,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -584,17 +572,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -607,7 +584,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +592,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -624,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -635,27 +612,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,6 +641,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,6 +665,828 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.189444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.261666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.3138888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.61888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1343.9216666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5624.5516666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63155000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1577500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.577500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>971.28169014084517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.189444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.261666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.3138888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.61888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1343.9216666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5624.5516666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$B$38:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.59388481434063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.01045331215874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.852190420696065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.116944753796837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.490425997440632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.758683340100134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.2274671676017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>987.8439403347104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="194380848"/>
+        <c:axId val="194366808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="194380848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194366808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194366808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194380848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.189444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.261666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.3138888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.61888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1343.9216666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63155000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1577500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.577500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315.77499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.189444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.261666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.3138888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.61888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1343.9216666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$B$72:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21289126954511683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77811330025655845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2770790021196445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3500167060568486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.280121680786504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.851716112963096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315.86236192827221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="219654704"/>
+        <c:axId val="219645296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="219654704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219645296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="219645296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219654704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1023937</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sample Parameters"/>
+      <sheetName val="Scintillation Counter Results"/>
+      <sheetName val="Gamma Counter Results"/>
+      <sheetName val="Quality Control Notes"/>
+      <sheetName val="Calibration Data Legacy"/>
+      <sheetName val="Gamma Counter Geometry"/>
+      <sheetName val="Scint Cocktail Testing"/>
+      <sheetName val="Gamma Counter Multinuclide Stan"/>
+      <sheetName val="Stock Log"/>
+      <sheetName val="Calibration Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="E3">
+            <v>971.28169014084517</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="D2">
+            <v>1.1544444444444444</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>3.5588888888888888</v>
+          </cell>
+          <cell r="G3">
+            <v>0.63155000000000006</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>14.189444444444446</v>
+          </cell>
+          <cell r="G4">
+            <v>3.1577500000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>27.261666666666667</v>
+          </cell>
+          <cell r="G5">
+            <v>6.3155000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>133.3138888888889</v>
+          </cell>
+          <cell r="G6">
+            <v>31.577500000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>267.61888888888888</v>
+          </cell>
+          <cell r="G7">
+            <v>63.155000000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1343.9216666666666</v>
+          </cell>
+          <cell r="G8">
+            <v>315.77499999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>5624.5516666666663</v>
+          </cell>
+          <cell r="G9">
+            <v>971.28169014084517</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>13.59388481434063</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>14.01045331215874</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>15.852190420696065</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>18.116944753796837</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>36.490425997440632</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>59.758683340100134</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>246.2274671676017</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>987.8439403347104</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>0.21289126954511683</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>0.77811330025655845</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>3.2770790021196445</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>6.3500167060568486</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>31.280121680786504</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>62.851716112963096</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>315.86236192827221</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,7 +1785,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="20">
         <v>42419</v>
       </c>
     </row>
@@ -1014,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,74 +1854,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="22" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -1140,27 +1937,30 @@
         <f>C2/60</f>
         <v>6.7855147097729829E-2</v>
       </c>
-      <c r="F2" s="2">
-        <v>1.1574074074074073E-3</v>
+      <c r="G2" s="15">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H2:H9" si="0">D2*$B$31+$B$30</f>
+        <v>13.59388481434063</v>
+      </c>
+      <c r="I2" s="2" t="e">
+        <f t="shared" ref="I2:I9" si="1">ABS(H2-G2)/G2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J9" si="2">D2*$B$65+$B$64</f>
+        <v>0.21289126954511683</v>
+      </c>
+      <c r="K2" s="2" t="e">
+        <f t="shared" ref="K2:K9" si="3">ABS(J2-G2)/G2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>213.53333333333333</v>
@@ -1169,51 +1969,37 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E10" si="4">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
+        <f t="shared" si="4"/>
+        <v>7.5649451459830402E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <f>F7*0.01</f>
+        <v>0.63155000000000006</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>14.01045331215874</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>21.184234521666912</v>
+      </c>
+      <c r="J3" s="2">
         <f t="shared" si="2"/>
-        <v>7.5649451459830402E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.4640522875816994E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.1343954248366012E-4</v>
-      </c>
-      <c r="H3" s="5">
-        <f>H7/100</f>
-        <v>1.59E-5</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="J3" s="5">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.77811330025655845</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23206919524433281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>851.36666666666679</v>
@@ -1222,51 +2008,37 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="4"/>
+        <v>14.189444444444446</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20884308008334296</v>
+      </c>
+      <c r="G4" s="15">
+        <f>F7*0.05</f>
+        <v>3.1577500000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>15.852190420696065</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>4.020090387363175</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>14.189444444444446</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20884308008334296</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.9815435847137763E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8.5144502711856026E-4</v>
-      </c>
-      <c r="H4" s="5">
-        <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
-      </c>
-      <c r="I4" s="5">
+        <v>3.2770790021196445</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3.7789249345149073E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2">
         <v>1635.7</v>
@@ -1275,51 +2047,37 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="4"/>
+        <v>27.261666666666667</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54368257351201177</v>
+      </c>
+      <c r="G5" s="15">
+        <f>F7*0.1</f>
+        <v>6.3155000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>18.116944753796837</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8686477323722328</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>27.261666666666667</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.54368257351201177</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.2604166666666666E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9.3201388888888891E-4</v>
-      </c>
-      <c r="H5" s="5">
-        <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
-      </c>
-      <c r="I5" s="5">
+        <v>6.3500167060568486</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5.4653956229670708E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>7998.833333333333</v>
@@ -1328,51 +2086,37 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="4"/>
+        <v>133.3138888888889</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.83723567783920716</v>
+      </c>
+      <c r="G6" s="15">
+        <f>F7*0.5</f>
+        <v>31.577500000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>36.490425997440632</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15558312081199052</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>133.3138888888889</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.83723567783920716</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5.0219907407407408E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.5444444444444447E-3</v>
-      </c>
-      <c r="H6" s="5">
-        <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
-      </c>
-      <c r="I6" s="5">
+        <v>31.280121680786504</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9.4174117397988009E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>16057.133333333333</v>
@@ -1381,50 +2125,40 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="4"/>
+        <v>267.61888888888888</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.89188765001953174</v>
+      </c>
+      <c r="F7">
+        <v>63.155000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <f>F7</f>
+        <v>63.155000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>59.758683340100134</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3777478582849605E-2</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>267.61888888888888</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.89188765001953174</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.4872685185185185E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.9521990740740741E-3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="I7" s="5">
+        <v>62.851716112963096</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4.8022149796042241E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>80635.3</v>
@@ -1433,1013 +2167,1259 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="4"/>
+        <v>1343.9216666666666</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3409166293037638</v>
+      </c>
+      <c r="G8" s="15">
+        <f>F7*5</f>
+        <v>315.77499999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>246.2274671676017</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22024394848356671</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>1343.9216666666666</v>
-      </c>
-      <c r="E8" s="2">
+        <v>315.86236192827221</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7665878638977192E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2">
+        <v>337473.1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>0.11/100*B9</f>
+        <v>371.22041000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="4"/>
+        <v>5624.5516666666663</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1870068333333332</v>
+      </c>
+      <c r="F9">
+        <f>'[1]Gamma Counter Geometry'!E3</f>
+        <v>971.28169014084517</v>
+      </c>
+      <c r="G9" s="6">
+        <f>F9</f>
+        <v>971.28169014084517</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>987.8439403347104</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7051953477537025E-2</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>1.3409166293037638</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.39049768518518518</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.6158564814814812E-3</v>
-      </c>
-      <c r="H8" s="5">
-        <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
-      </c>
-      <c r="I8" s="5">
+        <v>1322.1265685788667</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
+        <v>0.36121846216121467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="21">
+        <v>173514.3</v>
+      </c>
+      <c r="C10" s="2">
+        <f>0.15/100*B10</f>
+        <v>260.27145000000002</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+        <v>2891.9049999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3378575000000001</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="5">
+        <f>AVERAGE(I3:I9)</f>
+        <v>3.9313755918226088</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <f>AVERAGE(K3:K9)</f>
+        <v>9.3005512554208067E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.99638845963226397</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.99278996248835572</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.99158828956974832</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8">
+        <v>31.120869035963445</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="10">
+        <v>8</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
+      <c r="F24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>800155.75962872477</v>
+      </c>
+      <c r="D25" s="8">
+        <v>800155.75962872477</v>
+      </c>
+      <c r="E25" s="8">
+        <v>826.17320163867453</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.1744656818992979E-7</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="B26" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5811.0509373215291</v>
+      </c>
+      <c r="D26" s="8">
+        <v>968.50848955358822</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B27" s="10">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
+        <v>805966.81056604628</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="C29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="13">
+      <c r="F29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="8">
+        <v>13.393878035582304</v>
+      </c>
+      <c r="C30" s="8">
+        <v>12.340172637729504</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.0853882217685631</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.31942223025602995</v>
+      </c>
+      <c r="F30" s="8">
+        <v>-16.801436636852898</v>
+      </c>
+      <c r="G30" s="8">
+        <v>43.589192708017507</v>
+      </c>
+      <c r="H30" s="8">
+        <v>-16.801436636852898</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <v>43.589192708017507</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.17324937524782774</v>
+      </c>
+      <c r="C31" s="10">
+        <v>6.0274848200038023E-3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>28.743228796338709</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1.1744656818992979E-7</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.15850065120916404</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.18799809928649144</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.15850065120916404</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
+        <v>0.18799809928649144</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8">
+        <v>13.59388481434063</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-13.59388481434063</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>14.01045331215874</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-13.378903312158739</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>3</v>
+      </c>
+      <c r="B40" s="8">
+        <v>15.852190420696065</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-12.694440420696065</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8">
+        <v>18.116944753796837</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-11.801444753796837</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>5</v>
+      </c>
+      <c r="B42" s="8">
+        <v>36.490425997440632</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-4.912925997440631</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>6</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="14">
+      <c r="B43" s="8">
+        <v>59.758683340100134</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3.3963166598998669</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="14">
-        <v>6</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44"/>
+      <c r="B44" s="8">
+        <v>246.2274671676017</v>
+      </c>
+      <c r="C44" s="8">
+        <v>69.547532832398275</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="J44"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>8</v>
+      </c>
+      <c r="B45" s="10">
+        <v>987.8439403347104</v>
+      </c>
+      <c r="C45" s="10">
+        <v>-16.562250193865225</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
+      <c r="J45"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2447,14 +3427,25 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
-      </c>
+      <c r="J48"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -2462,14 +3453,27 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
-      </c>
+      <c r="J49"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -2477,13 +3481,28 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
+      <c r="J50"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.99999829960800468</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2492,10 +3511,29 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="J51"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.99999659921890061</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2503,12 +3541,29 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53"/>
+      <c r="J52"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.9999959190626807</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2516,187 +3571,249 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="J53"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.23250006226253306</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
+      <c r="J54"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10">
+        <v>7</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="J55"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="J56"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="J57"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8">
+        <v>79475.999096814514</v>
+      </c>
+      <c r="D59" s="8">
+        <v>79475.999096814514</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1470245.4670856295</v>
+      </c>
+      <c r="F59" s="8">
+        <v>7.2414589665769559E-15</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="8">
+        <v>5</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.27028139476040874</v>
+      </c>
+      <c r="D60" s="8">
+        <v>5.4056278952081746E-2</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="10">
+        <v>6</v>
+      </c>
+      <c r="C61" s="10">
+        <v>79476.269378209268</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -2706,43 +3823,97 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="8">
+        <v>-5.8488439285376614E-2</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.10090997906807501</v>
+      </c>
+      <c r="D64" s="8">
+        <v>-0.57961006260758063</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.58731182151226236</v>
+      </c>
+      <c r="F64" s="8">
+        <v>-0.31788579851221099</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.20090891994145776</v>
+      </c>
+      <c r="H64" s="8">
+        <v>-0.31788579851221099</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8">
+        <v>0.20090891994145776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="10">
+        <v>0.23507385750475854</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1.9386946395761538E-4</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1212.5367899926284</v>
+      </c>
+      <c r="E65" s="10">
+        <v>7.2414589665769812E-15</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.23457550018222453</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0.23557221482729254</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0.23457550018222453</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10">
+        <v>0.23557221482729254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2752,84 +3923,67 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
-      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
-      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2837,16 +3991,17 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>1</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0.21289126954511683</v>
+      </c>
+      <c r="C72" s="8">
+        <v>-0.21289126954511683</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2854,16 +4009,17 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>2</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0.77811330025655845</v>
+      </c>
+      <c r="C73" s="8">
+        <v>-0.14656330025655839</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2871,16 +4027,17 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>3</v>
+      </c>
+      <c r="B74" s="8">
+        <v>3.2770790021196445</v>
+      </c>
+      <c r="C74" s="8">
+        <v>-0.11932900211964448</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2888,10 +4045,84 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>4</v>
+      </c>
+      <c r="B75" s="8">
+        <v>6.3500167060568486</v>
+      </c>
+      <c r="C75" s="8">
+        <v>-3.4516706056848534E-2</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>5</v>
+      </c>
+      <c r="B76" s="8">
+        <v>31.280121680786504</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.29737831921349667</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>6</v>
+      </c>
+      <c r="B77" s="8">
+        <v>62.851716112963096</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.30328388703690479</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>7</v>
+      </c>
+      <c r="B78" s="10">
+        <v>315.86236192827221</v>
+      </c>
+      <c r="C78" s="10">
+        <v>-8.7361928272230216E-2</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2900,7 +4131,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,11 +4161,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>75.400000000000006</v>
@@ -2950,11 +4181,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>91.1</v>
@@ -2970,11 +4201,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>64.599999999999994</v>
@@ -2990,11 +4221,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>104.4</v>
@@ -3010,11 +4241,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>103.9</v>
@@ -3030,11 +4261,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>109.7</v>
@@ -3050,11 +4281,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>265.8</v>
@@ -3070,11 +4301,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>230.2</v>
@@ -3090,11 +4321,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>273.5</v>
@@ -3110,11 +4341,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>492.7</v>
@@ -3130,11 +4361,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C12">
         <v>507.9</v>
@@ -3150,11 +4381,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C13">
         <v>469.8</v>
@@ -3170,11 +4401,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>1112.8</v>
@@ -3190,11 +4421,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C15">
         <v>1090.9000000000001</v>
@@ -3210,11 +4441,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C16">
         <v>1203.8</v>
@@ -3230,11 +4461,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>2420.1</v>
@@ -3250,11 +4481,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C18">
         <v>2166.8000000000002</v>
@@ -3270,11 +4501,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>42459.724305555559</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>2342.6</v>
@@ -3299,7 +4530,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -3327,571 +4558,571 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C2">
         <f>'Scintillation Counter Results'!C2/60</f>
         <v>1.2566666666666668</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C2+'Calibration Data'!$B$27</f>
-        <v>0.26659569137307271</v>
-      </c>
-      <c r="G2" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F2-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862496240945</v>
+        <f>C2*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.23692104164560329</v>
+      </c>
+      <c r="G2" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C3">
         <f>'Scintillation Counter Results'!C3/60</f>
         <v>1.5183333333333333</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C3+'Calibration Data'!$B$27</f>
-        <v>0.3238829524454363</v>
-      </c>
-      <c r="G3" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F3-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862665814351</v>
+        <f>C3*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.29843203435934845</v>
+      </c>
+      <c r="G3" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C4">
         <f>'Scintillation Counter Results'!C4/60</f>
         <v>1.0766666666666667</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C4+'Calibration Data'!$B$27</f>
-        <v>0.22718789394749775</v>
-      </c>
-      <c r="G4" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F4-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862407515735</v>
+        <f>C4*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.19460774729474672</v>
+      </c>
+      <c r="G4" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C5">
         <f>'Scintillation Counter Results'!C5/60</f>
         <v>1.74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C5+'Calibration Data'!$B$27</f>
-        <v>0.37241292520100544</v>
-      </c>
-      <c r="G5" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F5-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862847097764</v>
+        <f>C5*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.35054007277290322</v>
+      </c>
+      <c r="G5" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C6">
         <f>'Scintillation Counter Results'!C6/60</f>
         <v>1.7316666666666667</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C6+'Calibration Data'!$B$27</f>
-        <v>0.37058849013500661</v>
-      </c>
-      <c r="G6" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F6-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862839658162</v>
+        <f>C6*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.34858112396036361</v>
+      </c>
+      <c r="G6" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C7">
         <f>'Scintillation Counter Results'!C7/60</f>
         <v>1.8283333333333334</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C7+'Calibration Data'!$B$27</f>
-        <v>0.39175193690059318</v>
-      </c>
-      <c r="G7" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F7-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862928956797</v>
+        <f>C7*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.37130493018582361</v>
+      </c>
+      <c r="G7" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C8">
         <f>'Scintillation Counter Results'!C8/60</f>
         <v>4.4300000000000006</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C8+'Calibration Data'!$B$27</f>
-        <v>0.96134056450543137</v>
-      </c>
-      <c r="G8" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F8-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297867798122276</v>
+        <f>C8*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.98288874946070393</v>
+      </c>
+      <c r="G8" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C9">
         <f>'Scintillation Counter Results'!C9/60</f>
         <v>3.8366666666666664</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C9+'Calibration Data'!$B$27</f>
-        <v>0.8314407878063137</v>
-      </c>
-      <c r="G9" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F9-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297866269117676</v>
+        <f>C9*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>0.84341159400788024</v>
+      </c>
+      <c r="G9" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C10">
         <f>'Scintillation Counter Results'!C10/60</f>
         <v>4.5583333333333336</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C10+'Calibration Data'!$B$27</f>
-        <v>0.98943686452181334</v>
-      </c>
-      <c r="G10" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F10-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297868161364138</v>
+        <f>C10*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>1.0130565611738145</v>
+      </c>
+      <c r="G10" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C11">
         <f>'Scintillation Counter Results'!C11/60</f>
         <v>8.211666666666666</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C11+'Calibration Data'!$B$27</f>
-        <v>1.7892691974557049</v>
-      </c>
-      <c r="G11" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F11-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297883354656204</v>
+        <f>C11*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>1.8718597205911987</v>
+      </c>
+      <c r="G11" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C12">
         <f>'Scintillation Counter Results'!C12/60</f>
         <v>8.4649999999999999</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C12+'Calibration Data'!$B$27</f>
-        <v>1.8447320234620699</v>
-      </c>
-      <c r="G12" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F12-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297884755828743</v>
+        <f>C12*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>1.9314117644924045</v>
+      </c>
+      <c r="G12" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C13">
         <f>'Scintillation Counter Results'!C13/60</f>
         <v>7.83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C13+'Calibration Data'!$B$27</f>
-        <v>1.7057100714329583</v>
-      </c>
-      <c r="G13" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F13-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297881328806205</v>
+        <f>C13*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>1.7821398649768827</v>
+      </c>
+      <c r="G13" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C14">
         <f>'Scintillation Counter Results'!C14/60</f>
         <v>18.546666666666667</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C14+'Calibration Data'!$B$27</f>
-        <v>4.0519335663074676</v>
-      </c>
-      <c r="G14" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F14-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.232979771144293</v>
+        <f>C14*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>4.3013480379028781</v>
+      </c>
+      <c r="G14" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C15">
         <f>'Scintillation Counter Results'!C15/60</f>
         <v>18.181666666666668</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C15+'Calibration Data'!$B$27</f>
-        <v>3.9720233104167182</v>
-      </c>
-      <c r="G15" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F15-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297972524938737</v>
+        <f>C15*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>4.2155460799136417</v>
+      </c>
+      <c r="G15" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="21" t="s">
         <v>124</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C16">
         <f>'Scintillation Counter Results'!C16/60</f>
         <v>20.063333333333333</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C16+'Calibration Data'!$B$27</f>
-        <v>4.3839807483192557</v>
-      </c>
-      <c r="G16" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F16-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297997187305675</v>
+        <f>C16*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>4.6578767217850956</v>
+      </c>
+      <c r="G16" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C17">
         <f>'Scintillation Counter Results'!C17/60</f>
         <v>40.335000000000001</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C17+'Calibration Data'!$B$27</f>
-        <v>8.8221014898680359</v>
-      </c>
-      <c r="G17" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F17-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298420615355475</v>
+        <f>C17*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>9.4232156031690586</v>
+      </c>
+      <c r="G17" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C18">
         <f>'Scintillation Counter Results'!C18/60</f>
         <v>36.113333333333337</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C18+'Calibration Data'!$B$27</f>
-        <v>7.8978426854330239</v>
-      </c>
-      <c r="G18" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F18-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298308636037085</v>
+        <f>C18*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>8.4308121347364704</v>
+      </c>
+      <c r="G18" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C19">
         <f>'Scintillation Counter Results'!C19/60</f>
         <v>39.043333333333329</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C19+'Calibration Data'!$B$27</f>
-        <v>8.5393140546382149</v>
-      </c>
-      <c r="G19" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F19-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298385024785517</v>
+        <f>C19*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
+        <v>9.1195785372254115</v>
+      </c>
+      <c r="G19" s="18">
+        <f>'Calibration Data'!$B$54</f>
+        <v>0.23250006226253306</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B36" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B37" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3907,7 +5138,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:L19"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,34 +5189,34 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="O1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
@@ -4006,12 +5237,12 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4024,11 +5255,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.26659569137307271</v>
+        <v>0.23692104164560329</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>0.23297862496240945</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4063,7 +5294,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4076,11 +5307,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.3238829524454363</v>
+        <v>0.29843203435934845</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>0.23297862665814351</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4115,7 +5346,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4128,11 +5359,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.22718789394749775</v>
+        <v>0.19460774729474672</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>0.23297862407515735</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4167,7 +5398,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4180,11 +5411,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.37241292520100544</v>
+        <v>0.35054007277290322</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>0.23297862847097764</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4219,7 +5450,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4232,11 +5463,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>0.37058849013500661</v>
+        <v>0.34858112396036361</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>0.23297862839658162</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4271,7 +5502,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4284,11 +5515,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>0.39175193690059318</v>
+        <v>0.37130493018582361</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>0.23297862928956797</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4323,7 +5554,7 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4336,11 +5567,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>0.96134056450543137</v>
+        <v>0.98288874946070393</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.23297867798122276</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -4375,7 +5606,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4388,11 +5619,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>0.8314407878063137</v>
+        <v>0.84341159400788024</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.23297866269117676</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -4427,7 +5658,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -4440,11 +5671,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>0.98943686452181334</v>
+        <v>1.0130565611738145</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.23297868161364138</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -4479,7 +5710,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4492,11 +5723,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>1.7892691974557049</v>
+        <v>1.8718597205911987</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>0.23297883354656204</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -4531,7 +5762,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4544,11 +5775,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>1.8447320234620699</v>
+        <v>1.9314117644924045</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>0.23297884755828743</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -4583,7 +5814,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4596,11 +5827,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>1.7057100714329583</v>
+        <v>1.7821398649768827</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>0.23297881328806205</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -4635,7 +5866,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4648,11 +5879,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>4.0519335663074676</v>
+        <v>4.3013480379028781</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.232979771144293</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4687,7 +5918,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4700,11 +5931,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>3.9720233104167182</v>
+        <v>4.2155460799136417</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>0.23297972524938737</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4739,7 +5970,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4752,11 +5983,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>4.3839807483192557</v>
+        <v>4.6578767217850956</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>0.23297997187305675</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4791,7 +6022,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -4801,11 +6032,11 @@
       </c>
       <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>8.8221014898680359</v>
+        <v>9.4232156031690586</v>
       </c>
       <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.23298420615355475</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4836,7 +6067,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -4846,11 +6077,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>7.8978426854330239</v>
+        <v>8.4308121347364704</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.23298308636037085</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4881,7 +6112,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
@@ -4893,11 +6124,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>8.5393140546382149</v>
+        <v>9.1195785372254115</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.23298385024785517</v>
+        <v>0.23250006226253306</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4949,28 +6180,28 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/ExperimentDataTemplate _NoScript.xlsx
+++ b/Sorption Experiments/ExperimentDataTemplate _NoScript.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Calibration Data" sheetId="9" r:id="rId2"/>
-    <sheet name="Scintillation Counter Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Scintillation Counter Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Calibration Data" sheetId="10" r:id="rId3"/>
     <sheet name="Count-&gt;Actual Activity" sheetId="2" r:id="rId4"/>
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
   <si>
     <t>Parameters</t>
   </si>
@@ -292,60 +292,6 @@
     <t>Counted Solid Mass error (g)</t>
   </si>
   <si>
-    <t>0_A</t>
-  </si>
-  <si>
-    <t>0_B</t>
-  </si>
-  <si>
-    <t>0_C</t>
-  </si>
-  <si>
-    <t>5_A</t>
-  </si>
-  <si>
-    <t>5_B</t>
-  </si>
-  <si>
-    <t>5_C</t>
-  </si>
-  <si>
-    <t>10_A</t>
-  </si>
-  <si>
-    <t>10_B</t>
-  </si>
-  <si>
-    <t>10_C</t>
-  </si>
-  <si>
-    <t>50_A</t>
-  </si>
-  <si>
-    <t>50_B</t>
-  </si>
-  <si>
-    <t>50_C</t>
-  </si>
-  <si>
-    <t>100_A</t>
-  </si>
-  <si>
-    <t>100_B</t>
-  </si>
-  <si>
-    <t>100_C</t>
-  </si>
-  <si>
-    <t>500_A</t>
-  </si>
-  <si>
-    <t>500_B</t>
-  </si>
-  <si>
-    <t>500_C</t>
-  </si>
-  <si>
     <t>Calibration Method</t>
   </si>
   <si>
@@ -361,9 +307,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>0A</t>
   </si>
   <si>
@@ -469,17 +412,17 @@
     <t>Scintillation Counter Calibration</t>
   </si>
   <si>
-    <t>CPS-&gt;Bq w/Background and RaStock5</t>
-  </si>
-  <si>
-    <t>CPS-&gt;Bq without RaStock5</t>
+    <t>CPS-&gt;Bq w/Background (RaStd only)</t>
+  </si>
+  <si>
+    <t>cps-&gt;Bq (background, Stds, and RaStock 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,13 +454,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -601,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,29 +549,22 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -668,300 +597,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>X Variable 1 Line Fit  Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Y</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Calibration Data'!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1544444444444444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5588888888888888</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.189444444444446</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.261666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>133.3138888888889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.61888888888888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1343.9216666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5624.5516666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Calibration Data'!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63155000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1577500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3155000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.577500000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.155000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>315.77499999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>971.28169014084517</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Predicted Y</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Calibration Data'!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1544444444444444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5588888888888888</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.189444444444446</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.261666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>133.3138888888889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.61888888888888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1343.9216666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5624.5516666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Calibration Data'!$B$38:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13.59388481434063</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.01045331215874</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.852190420696065</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.116944753796837</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.490425997440632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.758683340100134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>246.2274671676017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>987.8439403347104</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="194380848"/>
-        <c:axId val="194366808"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="194380848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>X Variable 1</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194366808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="194366808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Y</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194380848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1051,22 +686,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63155000000000006</c:v>
+                  <c:v>0.42769009531437396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1577500000000001</c:v>
+                  <c:v>2.1384504765718702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3155000000000001</c:v>
+                  <c:v>4.2769009531437403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.577500000000001</c:v>
+                  <c:v>21.384504765718699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.155000000000001</c:v>
+                  <c:v>42.769009531437398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315.77499999999998</c:v>
+                  <c:v>213.845047657187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,30 +751,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Data'!$B$72:$B$78</c:f>
+              <c:f>'Calibration Data'!$B$38:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.21289126954511683</c:v>
+                  <c:v>0.1441714628506657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77811330025655845</c:v>
+                  <c:v>0.52694379154793525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2770790021196445</c:v>
+                  <c:v>2.2192609148432805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3500167060568486</c:v>
+                  <c:v>4.3002759088928997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.280121680786504</c:v>
+                  <c:v>21.183118079488228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.851716112963096</c:v>
+                  <c:v>42.563623553202696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315.86236192827221</c:v>
+                  <c:v>213.90420976854736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,11 +789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219654704"/>
-        <c:axId val="219645296"/>
+        <c:axId val="227970112"/>
+        <c:axId val="235474464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219654704"/>
+        <c:axId val="227970112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,12 +822,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219645296"/>
+        <c:crossAx val="235474464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219645296"/>
+        <c:axId val="235474464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +856,311 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219654704"/>
+        <c:crossAx val="227970112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0519469016990174E-2"/>
+          <c:y val="0.28624189833413682"/>
+          <c:w val="0.83812820928248166"/>
+          <c:h val="0.53549252771974931"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.189444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.261666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.3138888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.61888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1343.9216666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5624.5516666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42769009531437396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1384504765718702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2769009531437403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.384504765718699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.769009531437398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.845047657187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>921.74647887323954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.189444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.261666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.3138888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.61888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1343.9216666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5624.5516666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Data'!$B$72:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.86244335302746633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.46848823374427229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.273270363178999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4150827376553288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.791161420752843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.796303780178178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>219.142648643325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>920.50054699429393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="235468584"/>
+        <c:axId val="235468976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="235468584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="235468976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="235468976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="235468584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1247,16 +1186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>83559</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>1214438</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1279,16 +1218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1457326</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1318,14 +1257,13 @@
     <sheetNames>
       <sheetName val="Sample Parameters"/>
       <sheetName val="Scintillation Counter Results"/>
-      <sheetName val="Gamma Counter Results"/>
+      <sheetName val="Calibration Data Legacy"/>
+      <sheetName val="Gamma Counter Multinuclide Stan"/>
       <sheetName val="Quality Control Notes"/>
-      <sheetName val="Calibration Data Legacy"/>
       <sheetName val="Gamma Counter Geometry"/>
       <sheetName val="Scint Cocktail Testing"/>
-      <sheetName val="Gamma Counter Multinuclide Stan"/>
+      <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
-      <sheetName val="Calibration Data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1334,16 +1272,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="3">
-          <cell r="E3">
-            <v>971.28169014084517</v>
+        <row r="6">
+          <cell r="G6">
+            <v>42.769009531437398</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="2">
           <cell r="D2">
             <v>1.1544444444444444</v>
@@ -1357,7 +1293,7 @@
             <v>3.5588888888888888</v>
           </cell>
           <cell r="G3">
-            <v>0.63155000000000006</v>
+            <v>0.42769009531437396</v>
           </cell>
         </row>
         <row r="4">
@@ -1365,7 +1301,7 @@
             <v>14.189444444444446</v>
           </cell>
           <cell r="G4">
-            <v>3.1577500000000001</v>
+            <v>2.1384504765718702</v>
           </cell>
         </row>
         <row r="5">
@@ -1373,7 +1309,7 @@
             <v>27.261666666666667</v>
           </cell>
           <cell r="G5">
-            <v>6.3155000000000001</v>
+            <v>4.2769009531437403</v>
           </cell>
         </row>
         <row r="6">
@@ -1381,7 +1317,7 @@
             <v>133.3138888888889</v>
           </cell>
           <cell r="G6">
-            <v>31.577500000000001</v>
+            <v>21.384504765718699</v>
           </cell>
         </row>
         <row r="7">
@@ -1389,7 +1325,7 @@
             <v>267.61888888888888</v>
           </cell>
           <cell r="G7">
-            <v>63.155000000000001</v>
+            <v>42.769009531437398</v>
           </cell>
         </row>
         <row r="8">
@@ -1397,7 +1333,7 @@
             <v>1343.9216666666666</v>
           </cell>
           <cell r="G8">
-            <v>315.77499999999998</v>
+            <v>213.845047657187</v>
           </cell>
         </row>
         <row r="9">
@@ -1405,82 +1341,89 @@
             <v>5624.5516666666663</v>
           </cell>
           <cell r="G9">
-            <v>971.28169014084517</v>
+            <v>921.74647887323954</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>13.59388481434063</v>
+            <v>0.1441714628506657</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>14.01045331215874</v>
+            <v>0.52694379154793525</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>15.852190420696065</v>
+            <v>2.2192609148432805</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>18.116944753796837</v>
+            <v>4.3002759088928997</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>36.490425997440632</v>
+            <v>21.183118079488228</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>59.758683340100134</v>
+            <v>42.563623553202696</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>246.2274671676017</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>987.8439403347104</v>
+            <v>213.90420976854736</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>0.21289126954511683</v>
+            <v>-0.86244335302746633</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>0.77811330025655845</v>
+            <v>-0.46848823374427229</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>3.2770790021196445</v>
+            <v>1.273270363178999</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>6.3500167060568486</v>
+            <v>3.4150827376553288</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>31.280121680786504</v>
+            <v>20.791161420752843</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>62.851716112963096</v>
+            <v>42.796303780178178</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>315.86236192827221</v>
+            <v>219.142648643325</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>920.50054699429393</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="6">
+          <cell r="F6">
+            <v>921.74647887323954</v>
           </cell>
         </row>
       </sheetData>
@@ -1754,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1728,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>42419</v>
       </c>
     </row>
@@ -1811,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,10 +1797,409 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="D2">
+        <v>7.28</v>
+      </c>
+      <c r="E2">
+        <v>0.11</v>
+      </c>
+      <c r="F2">
+        <v>181.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>91.1</v>
+      </c>
+      <c r="D3">
+        <v>6.63</v>
+      </c>
+      <c r="E3">
+        <v>25.26</v>
+      </c>
+      <c r="F3">
+        <v>191.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D4">
+        <v>7.87</v>
+      </c>
+      <c r="E4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>202.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>104.4</v>
+      </c>
+      <c r="D5">
+        <v>6.19</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>213.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>103.9</v>
+      </c>
+      <c r="D6">
+        <v>6.2</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <v>223.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>109.7</v>
+      </c>
+      <c r="D7">
+        <v>6.04</v>
+      </c>
+      <c r="E7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7">
+        <v>234.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>265.8</v>
+      </c>
+      <c r="D8">
+        <v>3.88</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <v>245.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>230.2</v>
+      </c>
+      <c r="D9">
+        <v>4.17</v>
+      </c>
+      <c r="E9">
+        <v>0.04</v>
+      </c>
+      <c r="F9">
+        <v>255.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>273.5</v>
+      </c>
+      <c r="D10">
+        <v>3.82</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
+      <c r="F10">
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>492.7</v>
+      </c>
+      <c r="D11">
+        <v>2.85</v>
+      </c>
+      <c r="E11">
+        <v>0.02</v>
+      </c>
+      <c r="F11">
+        <v>277.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>507.9</v>
+      </c>
+      <c r="D12">
+        <v>2.81</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>287.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>469.8</v>
+      </c>
+      <c r="D13">
+        <v>2.92</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>298.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>1112.8</v>
+      </c>
+      <c r="D14">
+        <v>1.9</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>309.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>1090.9000000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.91</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <v>319.66000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>1203.8</v>
+      </c>
+      <c r="D16">
+        <v>1.82</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <v>330.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>2420.1</v>
+      </c>
+      <c r="D17">
+        <v>1.29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>340.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>2166.8000000000002</v>
+      </c>
+      <c r="D18">
+        <v>1.36</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>351.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>42459.724305555559</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <v>2342.6</v>
+      </c>
+      <c r="D19">
+        <v>1.31</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>362.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X111"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,11 +2221,11 @@
     <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="22" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="22"/>
+    <col min="25" max="25" width="12.7109375" style="19" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
@@ -1897,29 +2239,29 @@
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1937,28 +2279,28 @@
         <f>C2/60</f>
         <v>6.7855147097729829E-2</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H9" si="0">D2*$B$31+$B$30</f>
-        <v>13.59388481434063</v>
+        <f>D2*$B$65+$B$64</f>
+        <v>-0.86244335302746633</v>
       </c>
       <c r="I2" s="2" t="e">
-        <f t="shared" ref="I2:I9" si="1">ABS(H2-G2)/G2</f>
+        <f t="shared" ref="I2:I9" si="0">ABS(H2-G2)/G2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J9" si="2">D2*$B$65+$B$64</f>
-        <v>0.21289126954511683</v>
+        <f>D2*$B$31+$B$30</f>
+        <v>0.1441714628506657</v>
       </c>
       <c r="K2" s="2" t="e">
-        <f t="shared" ref="K2:K9" si="3">ABS(J2-G2)/G2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K2:K9" si="1">ABS(J2-G2)/G2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1969,35 +2311,35 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E10" si="4">B3/60</f>
+        <f t="shared" ref="D3:E10" si="2">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.5649451459830402E-2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>F7*0.01</f>
-        <v>0.63155000000000006</v>
+        <v>0.42769009531437396</v>
       </c>
       <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="3">D3*$B$65+$B$64</f>
+        <v>-0.46848823374427229</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>14.01045331215874</v>
-      </c>
-      <c r="I3" s="2">
+        <v>2.0953918243065921</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J9" si="4">D3*$B$31+$B$30</f>
+        <v>0.52694379154793525</v>
+      </c>
+      <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>21.184234521666912</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="2"/>
-        <v>0.77811330025655845</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23206919524433281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.23206919524429195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -2008,35 +2350,35 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>14.189444444444446</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20884308008334296</v>
+      </c>
+      <c r="G4" s="13">
+        <f>F7*0.05</f>
+        <v>2.1384504765718702</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>1.273270363178999</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40458272140107415</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>14.189444444444446</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.20884308008334296</v>
-      </c>
-      <c r="G4" s="15">
-        <f>F7*0.05</f>
-        <v>3.1577500000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>15.852190420696065</v>
-      </c>
-      <c r="I4" s="2">
+        <v>2.2192609148432805</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>4.020090387363175</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2770790021196445</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="3"/>
-        <v>3.7789249345149073E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.7789249345141149E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -2047,35 +2389,35 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>27.261666666666667</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.54368257351201177</v>
+      </c>
+      <c r="G5" s="13">
+        <f>F7*0.1</f>
+        <v>4.2769009531437403</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4150827376553288</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20150530136895764</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>27.261666666666667</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.54368257351201177</v>
-      </c>
-      <c r="G5" s="15">
-        <f>F7*0.1</f>
-        <v>6.3155000000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>18.116944753796837</v>
-      </c>
-      <c r="I5" s="2">
+        <v>4.3002759088928997</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
-        <v>1.8686477323722328</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3500167060568486</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="3"/>
-        <v>5.4653956229670708E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5.465395622963303E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2086,35 +2428,35 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>133.3138888888889</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83723567783920716</v>
+      </c>
+      <c r="G6" s="13">
+        <f>F7*0.5</f>
+        <v>21.384504765718699</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>20.791161420752843</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7746415054560394E-2</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>133.3138888888889</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.83723567783920716</v>
-      </c>
-      <c r="G6" s="15">
-        <f>F7*0.5</f>
-        <v>31.577500000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>36.490425997440632</v>
-      </c>
-      <c r="I6" s="2">
+        <v>21.183118079488228</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>0.15558312081199052</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>31.280121680786504</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>9.4174117397988009E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>9.4174117397991877E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2125,38 +2467,39 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>267.61888888888888</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.89188765001953174</v>
+      </c>
+      <c r="F7">
+        <f>'[1]Gamma Counter Geometry'!G6</f>
+        <v>42.769009531437398</v>
+      </c>
+      <c r="G7" s="13">
+        <f>F7</f>
+        <v>42.769009531437398</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>42.796303780178178</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3817818181451417E-4</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>267.61888888888888</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.89188765001953174</v>
-      </c>
-      <c r="F7">
-        <v>63.155000000000001</v>
-      </c>
-      <c r="G7" s="15">
-        <f>F7</f>
-        <v>63.155000000000001</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>59.758683340100134</v>
-      </c>
-      <c r="I7" s="2">
+        <v>42.563623553202696</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>5.3777478582849605E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>62.851716112963096</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8022149796042241E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4.8022149796041616E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2167,37 +2510,37 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>1343.9216666666666</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3409166293037638</v>
+      </c>
+      <c r="G8" s="13">
+        <f>F7*5</f>
+        <v>213.845047657187</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>219.142648643325</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4773082398571806E-2</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>1343.9216666666666</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3409166293037638</v>
-      </c>
-      <c r="G8" s="15">
-        <f>F7*5</f>
-        <v>315.77499999999998</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>246.2274671676017</v>
-      </c>
-      <c r="I8" s="2">
+        <v>213.90420976854736</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>0.22024394848356671</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>315.86236192827221</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7665878638977192E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.766587863900749E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2">
         <v>337473.1</v>
@@ -2207,43 +2550,43 @@
         <v>371.22041000000002</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5624.5516666666663</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.1870068333333332</v>
       </c>
       <c r="F9">
-        <f>'[1]Gamma Counter Geometry'!E3</f>
-        <v>971.28169014084517</v>
+        <f>'[1]Stock Log'!F6</f>
+        <v>921.74647887323954</v>
       </c>
       <c r="G9" s="6">
         <f>F9</f>
-        <v>971.28169014084517</v>
+        <v>921.74647887323954</v>
       </c>
       <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>920.50054699429393</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>987.8439403347104</v>
-      </c>
-      <c r="I9" s="2">
+        <v>1.3517077716083742E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>895.35339740822087</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.7051953477537025E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>1322.1265685788667</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.36121846216121467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.8633775197364545E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="21">
+        <v>123</v>
+      </c>
+      <c r="B10" s="18">
         <v>173514.3</v>
       </c>
       <c r="C10" s="2">
@@ -2251,11 +2594,11 @@
         <v>260.27145000000002</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2891.9049999999997</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.3378575000000001</v>
       </c>
       <c r="F10"/>
@@ -2265,80 +2608,80 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I11" s="5">
         <f>AVERAGE(I3:I9)</f>
-        <v>3.9313755918226088</v>
+        <v>0.39371274721188276</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5">
-        <f>AVERAGE(K3:K9)</f>
-        <v>9.3005512554208067E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <f>AVERAGE(K3:K8)</f>
+        <v>4.8303354286364959E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2350,23 +2693,23 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -2376,23 +2719,23 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2404,29 +2747,28 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="8">
-        <v>0.99638845963226397</v>
+        <v>0.99999829960800457</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2435,29 +2777,28 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J17" s="8"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="8">
-        <v>0.99278996248835572</v>
+        <v>0.99999659921890038</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2466,29 +2807,28 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="8">
-        <v>0.99158828956974832</v>
+        <v>0.99999591906268037</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2497,29 +2837,28 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="8"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="8">
-        <v>31.120869035963445</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2528,29 +2867,28 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="8"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2559,24 +2897,23 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="8"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2586,23 +2923,23 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2614,23 +2951,23 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>55</v>
@@ -2650,24 +2987,23 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J24" s="12"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
@@ -2675,81 +3011,79 @@
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <v>800155.75962872477</v>
+        <v>36448.436434940144</v>
       </c>
       <c r="D25" s="8">
-        <v>800155.75962872477</v>
+        <v>36448.436434940144</v>
       </c>
       <c r="E25" s="8">
-        <v>826.17320163867453</v>
+        <v>1470245.4670857524</v>
       </c>
       <c r="F25" s="8">
-        <v>1.1744656818992979E-7</v>
+        <v>7.2414589665754382E-15</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="8"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8">
-        <v>5811.0509373215291</v>
+        <v>0.12395357527333999</v>
       </c>
       <c r="D26" s="8">
-        <v>968.50848955358822</v>
+        <v>2.4790715054667997E-2</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="8"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="10">
-        <v>805966.81056604628</v>
+        <v>36448.56038851542</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2757,24 +3091,23 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="8"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2784,23 +3117,23 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
         <v>63</v>
@@ -2823,117 +3156,114 @@
       <c r="H29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="8">
-        <v>13.393878035582304</v>
+        <v>-3.9608781842709107E-2</v>
       </c>
       <c r="C30" s="8">
-        <v>12.340172637729504</v>
+        <v>6.8336946505889784E-2</v>
       </c>
       <c r="D30" s="8">
-        <v>1.0853882217685631</v>
+        <v>-0.57961006260786507</v>
       </c>
       <c r="E30" s="8">
-        <v>0.31942223025602995</v>
+        <v>0.5873118215120845</v>
       </c>
       <c r="F30" s="8">
-        <v>-16.801436636852898</v>
+        <v>-0.21527449523359993</v>
       </c>
       <c r="G30" s="8">
-        <v>43.589192708017507</v>
+        <v>0.13605693154818171</v>
       </c>
       <c r="H30" s="8">
-        <v>-16.801436636852898</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8">
-        <v>43.589192708017507</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.21527449523359993</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.13605693154818171</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="10">
-        <v>0.17324937524782774</v>
+        <v>0.15919366720311581</v>
       </c>
       <c r="C31" s="10">
-        <v>6.0274848200038023E-3</v>
+        <v>1.3128976251852687E-4</v>
       </c>
       <c r="D31" s="10">
-        <v>28.743228796338709</v>
+        <v>1212.5367899926798</v>
       </c>
       <c r="E31" s="10">
-        <v>1.1744656818992979E-7</v>
+        <v>7.2414589665754382E-15</v>
       </c>
       <c r="F31" s="10">
-        <v>0.15850065120916404</v>
+        <v>0.15885617612438069</v>
       </c>
       <c r="G31" s="10">
-        <v>0.18799809928649144</v>
+        <v>0.15953115828185094</v>
       </c>
       <c r="H31" s="10">
-        <v>0.15850065120916404</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10">
-        <v>0.18799809928649144</v>
-      </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.15885617612438069</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.15953115828185094</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2943,23 +3273,23 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2969,23 +3299,23 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2995,23 +3325,23 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3023,23 +3353,23 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3049,23 +3379,23 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>73</v>
       </c>
@@ -3081,32 +3411,31 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>1</v>
       </c>
       <c r="B38" s="8">
-        <v>13.59388481434063</v>
+        <v>0.1441714628506657</v>
       </c>
       <c r="C38" s="8">
-        <v>-13.59388481434063</v>
+        <v>-0.1441714628506657</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -3114,32 +3443,31 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>2</v>
       </c>
       <c r="B39" s="8">
-        <v>14.01045331215874</v>
+        <v>0.52694379154793525</v>
       </c>
       <c r="C39" s="8">
-        <v>-13.378903312158739</v>
+        <v>-9.9253696233561284E-2</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -3147,32 +3475,31 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>3</v>
       </c>
       <c r="B40" s="8">
-        <v>15.852190420696065</v>
+        <v>2.2192609148432805</v>
       </c>
       <c r="C40" s="8">
-        <v>-12.694440420696065</v>
+        <v>-8.0810438271410323E-2</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -3180,32 +3507,31 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>4</v>
       </c>
       <c r="B41" s="8">
-        <v>18.116944753796837</v>
+        <v>4.3002759088928997</v>
       </c>
       <c r="C41" s="8">
-        <v>-11.801444753796837</v>
+        <v>-2.3374955749159376E-2</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -3213,32 +3539,31 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>5</v>
       </c>
       <c r="B42" s="8">
-        <v>36.490425997440632</v>
+        <v>21.183118079488228</v>
       </c>
       <c r="C42" s="8">
-        <v>-4.912925997440631</v>
+        <v>0.20138668623047096</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3246,32 +3571,31 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>6</v>
       </c>
       <c r="B43" s="8">
-        <v>59.758683340100134</v>
+        <v>42.563623553202696</v>
       </c>
       <c r="C43" s="8">
-        <v>3.3963166598998669</v>
+        <v>0.20538597823470184</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -3279,32 +3603,31 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>7</v>
       </c>
-      <c r="B44" s="8">
-        <v>246.2274671676017</v>
-      </c>
-      <c r="C44" s="8">
-        <v>69.547532832398275</v>
+      <c r="B44" s="10">
+        <v>213.90420976854736</v>
+      </c>
+      <c r="C44" s="10">
+        <v>-5.9162111360365088E-2</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3312,110 +3635,103 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>8</v>
-      </c>
-      <c r="B45" s="10">
-        <v>987.8439403347104</v>
-      </c>
-      <c r="C45" s="10">
-        <v>-16.562250193865225</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3427,21 +3743,21 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
@@ -3453,21 +3769,21 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -3481,28 +3797,28 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>0.99999829960800468</v>
+        <v>0.99997693899899576</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -3511,28 +3827,28 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>0.99999659921890061</v>
+        <v>0.99995387852980122</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -3541,28 +3857,28 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>0.9999959190626807</v>
+        <v>0.99994619161810139</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -3571,28 +3887,28 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>0.23250006226253306</v>
+        <v>2.3454898264593513</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -3601,28 +3917,28 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
     </row>
     <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -3631,21 +3947,21 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -3657,21 +3973,21 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -3685,21 +4001,21 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
@@ -3721,21 +4037,21 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -3745,65 +4061,79 @@
         <v>1</v>
       </c>
       <c r="C59" s="8">
-        <v>79475.999096814514</v>
+        <v>715640.95071954106</v>
       </c>
       <c r="D59" s="8">
-        <v>79475.999096814514</v>
+        <v>715640.95071954106</v>
       </c>
       <c r="E59" s="8">
-        <v>1470245.4670856295</v>
+        <v>130085.25628776736</v>
       </c>
       <c r="F59" s="8">
-        <v>7.2414589665769559E-15</v>
+        <v>3.0659633657492487E-14</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="8">
-        <v>0.27028139476040874</v>
+        <v>33.007935156145905</v>
       </c>
       <c r="D60" s="8">
-        <v>5.4056278952081746E-2</v>
+        <v>5.5013225260243175</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" s="10">
-        <v>79476.269378209268</v>
+        <v>715673.95865469717</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -3811,7 +4141,21 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
     </row>
     <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62"/>
@@ -3823,7 +4167,21 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
@@ -3848,72 +4206,114 @@
       <c r="H63" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11" t="s">
+      <c r="I63" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="8">
-        <v>-5.8488439285376614E-2</v>
+        <v>-1.0515927841435655</v>
       </c>
       <c r="C64" s="8">
-        <v>0.10090997906807501</v>
+        <v>0.93004309568280563</v>
       </c>
       <c r="D64" s="8">
-        <v>-0.57961006260758063</v>
+        <v>-1.1306925335234301</v>
       </c>
       <c r="E64" s="8">
-        <v>0.58731182151226236</v>
+        <v>0.30134624757372269</v>
       </c>
       <c r="F64" s="8">
-        <v>-0.31788579851221099</v>
+        <v>-3.3273262570453777</v>
       </c>
       <c r="G64" s="8">
-        <v>0.20090891994145776</v>
+        <v>1.2241406887582467</v>
       </c>
       <c r="H64" s="8">
-        <v>-0.31788579851221099</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8">
-        <v>0.20090891994145776</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-3.3273262570453777</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1.2241406887582467</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+    </row>
+    <row r="65" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="10">
-        <v>0.23507385750475854</v>
+        <v>0.16384455053367589</v>
       </c>
       <c r="C65" s="10">
-        <v>1.9386946395761538E-4</v>
+        <v>4.5427408560216718E-4</v>
       </c>
       <c r="D65" s="10">
-        <v>1212.5367899926284</v>
+        <v>360.6733373674403</v>
       </c>
       <c r="E65" s="10">
-        <v>7.2414589665769812E-15</v>
+        <v>3.0659633657492487E-14</v>
       </c>
       <c r="F65" s="10">
-        <v>0.23457550018222453</v>
+        <v>0.16273298188994789</v>
       </c>
       <c r="G65" s="10">
-        <v>0.23557221482729254</v>
+        <v>0.16495611917740388</v>
       </c>
       <c r="H65" s="10">
-        <v>0.23457550018222453</v>
-      </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10">
-        <v>0.23557221482729254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.16273298188994789</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.16495611917740388</v>
+      </c>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3923,9 +4323,23 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -3935,9 +4349,23 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -3947,9 +4375,23 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3961,9 +4403,23 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+    </row>
+    <row r="70" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -3973,9 +4429,23 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>73</v>
       </c>
@@ -3991,17 +4461,31 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>1</v>
       </c>
       <c r="B72" s="8">
-        <v>0.21289126954511683</v>
+        <v>-0.86244335302746633</v>
       </c>
       <c r="C72" s="8">
-        <v>-0.21289126954511683</v>
+        <v>0.86244335302746633</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -4009,17 +4493,31 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>2</v>
       </c>
       <c r="B73" s="8">
-        <v>0.77811330025655845</v>
+        <v>-0.46848823374427229</v>
       </c>
       <c r="C73" s="8">
-        <v>-0.14656330025655839</v>
+        <v>0.89617832905864625</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -4027,17 +4525,31 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>3</v>
       </c>
       <c r="B74" s="8">
-        <v>3.2770790021196445</v>
+        <v>1.273270363178999</v>
       </c>
       <c r="C74" s="8">
-        <v>-0.11932900211964448</v>
+        <v>0.86518011339287115</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -4045,17 +4557,31 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>4</v>
       </c>
       <c r="B75" s="8">
-        <v>6.3500167060568486</v>
+        <v>3.4150827376553288</v>
       </c>
       <c r="C75" s="8">
-        <v>-3.4516706056848534E-2</v>
+        <v>0.86181821548841153</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -4063,17 +4589,31 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>5</v>
       </c>
       <c r="B76" s="8">
-        <v>31.280121680786504</v>
+        <v>20.791161420752843</v>
       </c>
       <c r="C76" s="8">
-        <v>0.29737831921349667</v>
+        <v>0.59334334496585583</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -4081,17 +4621,31 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>6</v>
       </c>
       <c r="B77" s="8">
-        <v>62.851716112963096</v>
+        <v>42.796303780178178</v>
       </c>
       <c r="C77" s="8">
-        <v>0.30328388703690479</v>
+        <v>-2.7294248740780347E-2</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -4099,17 +4653,31 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>7</v>
       </c>
-      <c r="B78" s="10">
-        <v>315.86236192827221</v>
-      </c>
-      <c r="C78" s="10">
-        <v>-8.7361928272230216E-2</v>
+      <c r="B78" s="8">
+        <v>219.142648643325</v>
+      </c>
+      <c r="C78" s="8">
+        <v>-5.2976009861380078</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -4117,7 +4685,885 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+    </row>
+    <row r="79" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>8</v>
+      </c>
+      <c r="B79" s="10">
+        <v>920.50054699429393</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1.245931878945612</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="19"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="19"/>
+      <c r="X92" s="19"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
+      <c r="X96" s="19"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="19"/>
+      <c r="X97" s="19"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="19"/>
+      <c r="W102" s="19"/>
+      <c r="X102" s="19"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="19"/>
+      <c r="X104" s="19"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="19"/>
+      <c r="X105" s="19"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="19"/>
+      <c r="X107" s="19"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="19"/>
+      <c r="X108" s="19"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="19"/>
+      <c r="X109" s="19"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="19"/>
+      <c r="X110" s="19"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="19"/>
+      <c r="X111" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4126,411 +5572,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="D2">
-        <v>7.28</v>
-      </c>
-      <c r="E2">
-        <v>0.11</v>
-      </c>
-      <c r="F2">
-        <v>181.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3">
-        <v>91.1</v>
-      </c>
-      <c r="D3">
-        <v>6.63</v>
-      </c>
-      <c r="E3">
-        <v>25.26</v>
-      </c>
-      <c r="F3">
-        <v>191.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="D4">
-        <v>7.87</v>
-      </c>
-      <c r="E4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F4">
-        <v>202.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5">
-        <v>104.4</v>
-      </c>
-      <c r="D5">
-        <v>6.19</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>213.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6">
-        <v>103.9</v>
-      </c>
-      <c r="D6">
-        <v>6.2</v>
-      </c>
-      <c r="E6">
-        <v>0.09</v>
-      </c>
-      <c r="F6">
-        <v>223.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7">
-        <v>109.7</v>
-      </c>
-      <c r="D7">
-        <v>6.04</v>
-      </c>
-      <c r="E7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F7">
-        <v>234.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8">
-        <v>265.8</v>
-      </c>
-      <c r="D8">
-        <v>3.88</v>
-      </c>
-      <c r="E8">
-        <v>0.04</v>
-      </c>
-      <c r="F8">
-        <v>245.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9">
-        <v>230.2</v>
-      </c>
-      <c r="D9">
-        <v>4.17</v>
-      </c>
-      <c r="E9">
-        <v>0.04</v>
-      </c>
-      <c r="F9">
-        <v>255.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10">
-        <v>273.5</v>
-      </c>
-      <c r="D10">
-        <v>3.82</v>
-      </c>
-      <c r="E10">
-        <v>0.02</v>
-      </c>
-      <c r="F10">
-        <v>266.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11">
-        <v>492.7</v>
-      </c>
-      <c r="D11">
-        <v>2.85</v>
-      </c>
-      <c r="E11">
-        <v>0.02</v>
-      </c>
-      <c r="F11">
-        <v>277.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12">
-        <v>507.9</v>
-      </c>
-      <c r="D12">
-        <v>2.81</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>287.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13">
-        <v>469.8</v>
-      </c>
-      <c r="D13">
-        <v>2.92</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <v>298.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14">
-        <v>1112.8</v>
-      </c>
-      <c r="D14">
-        <v>1.9</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>309.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15">
-        <v>1090.9000000000001</v>
-      </c>
-      <c r="D15">
-        <v>1.91</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-      <c r="F15">
-        <v>319.66000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16">
-        <v>1203.8</v>
-      </c>
-      <c r="D16">
-        <v>1.82</v>
-      </c>
-      <c r="E16">
-        <v>0.01</v>
-      </c>
-      <c r="F16">
-        <v>330.29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <v>2420.1</v>
-      </c>
-      <c r="D17">
-        <v>1.29</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>340.93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18">
-        <v>2166.8000000000002</v>
-      </c>
-      <c r="D18">
-        <v>1.36</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>351.55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>42459.724305555559</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19">
-        <v>2342.6</v>
-      </c>
-      <c r="D19">
-        <v>1.31</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>362.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -4558,21 +5605,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C2">
         <f>'Scintillation Counter Results'!C2/60</f>
@@ -4582,20 +5629,20 @@
         <v>46</v>
       </c>
       <c r="F2" s="1">
-        <f>C2*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.23692104164560329</v>
-      </c>
-      <c r="G2" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C2*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.16044459327587313</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C3">
         <f>'Scintillation Counter Results'!C3/60</f>
@@ -4605,20 +5652,20 @@
         <v>46</v>
       </c>
       <c r="F3" s="1">
-        <f>C3*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.29843203435934845</v>
-      </c>
-      <c r="G3" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C3*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.20210026952735508</v>
+      </c>
+      <c r="G3" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C4">
         <f>'Scintillation Counter Results'!C4/60</f>
@@ -4628,20 +5675,20 @@
         <v>46</v>
       </c>
       <c r="F4" s="1">
-        <f>C4*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.19460774729474672</v>
-      </c>
-      <c r="G4" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C4*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.13178973317931225</v>
+      </c>
+      <c r="G4" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C5">
         <f>'Scintillation Counter Results'!C5/60</f>
@@ -4651,20 +5698,20 @@
         <v>46</v>
       </c>
       <c r="F5" s="1">
-        <f>C5*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.35054007277290322</v>
-      </c>
-      <c r="G5" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C5*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.2373881990907124</v>
+      </c>
+      <c r="G5" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C6">
         <f>'Scintillation Counter Results'!C6/60</f>
@@ -4674,20 +5721,20 @@
         <v>46</v>
       </c>
       <c r="F6" s="1">
-        <f>C6*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.34858112396036361</v>
-      </c>
-      <c r="G6" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C6*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.2360615851973531</v>
+      </c>
+      <c r="G6" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C7">
         <f>'Scintillation Counter Results'!C7/60</f>
@@ -4697,20 +5744,20 @@
         <v>46</v>
       </c>
       <c r="F7" s="1">
-        <f>C7*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.37130493018582361</v>
-      </c>
-      <c r="G7" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C7*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.25145030636032095</v>
+      </c>
+      <c r="G7" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C8">
         <f>'Scintillation Counter Results'!C8/60</f>
@@ -4720,20 +5767,20 @@
         <v>46</v>
       </c>
       <c r="F8" s="1">
-        <f>C8*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.98288874946070393</v>
-      </c>
-      <c r="G8" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C8*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.66561916386709408</v>
+      </c>
+      <c r="G8" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C9">
         <f>'Scintillation Counter Results'!C9/60</f>
@@ -4743,20 +5790,20 @@
         <v>46</v>
       </c>
       <c r="F9" s="1">
-        <f>C9*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>0.84341159400788024</v>
-      </c>
-      <c r="G9" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C9*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.57116425465991183</v>
+      </c>
+      <c r="G9" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C10">
         <f>'Scintillation Counter Results'!C10/60</f>
@@ -4766,20 +5813,20 @@
         <v>46</v>
       </c>
       <c r="F10" s="1">
-        <f>C10*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>1.0130565611738145</v>
-      </c>
-      <c r="G10" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C10*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>0.68604901782482719</v>
+      </c>
+      <c r="G10" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C11">
         <f>'Scintillation Counter Results'!C11/60</f>
@@ -4789,20 +5836,20 @@
         <v>46</v>
       </c>
       <c r="F11" s="1">
-        <f>C11*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>1.8718597205911987</v>
-      </c>
-      <c r="G11" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C11*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>1.2676365486735435</v>
+      </c>
+      <c r="G11" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C12">
         <f>'Scintillation Counter Results'!C12/60</f>
@@ -4812,20 +5859,20 @@
         <v>46</v>
       </c>
       <c r="F12" s="1">
-        <f>C12*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>1.9314117644924045</v>
-      </c>
-      <c r="G12" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C12*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>1.3079656110316662</v>
+      </c>
+      <c r="G12" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C13">
         <f>'Scintillation Counter Results'!C13/60</f>
@@ -4835,20 +5882,20 @@
         <v>46</v>
       </c>
       <c r="F13" s="1">
-        <f>C13*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>1.7821398649768827</v>
-      </c>
-      <c r="G13" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C13*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>1.2068776323576877</v>
+      </c>
+      <c r="G13" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C14">
         <f>'Scintillation Counter Results'!C14/60</f>
@@ -4858,20 +5905,20 @@
         <v>46</v>
       </c>
       <c r="F14" s="1">
-        <f>C14*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>4.3013480379028781</v>
-      </c>
-      <c r="G14" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C14*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>2.9129030992177456</v>
+      </c>
+      <c r="G14" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C15">
         <f>'Scintillation Counter Results'!C15/60</f>
@@ -4881,20 +5928,20 @@
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <f>C15*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>4.2155460799136417</v>
-      </c>
-      <c r="G15" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C15*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>2.8547974106886085</v>
+      </c>
+      <c r="G15" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C16">
         <f>'Scintillation Counter Results'!C16/60</f>
@@ -4904,20 +5951,20 @@
         <v>46</v>
       </c>
       <c r="F16" s="1">
-        <f>C16*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>4.6578767217850956</v>
-      </c>
-      <c r="G16" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C16*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>3.1543468278091376</v>
+      </c>
+      <c r="G16" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C17">
         <f>'Scintillation Counter Results'!C17/60</f>
@@ -4927,20 +5974,20 @@
         <v>46</v>
       </c>
       <c r="F17" s="1">
-        <f>C17*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>9.4232156031690586</v>
-      </c>
-      <c r="G17" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C17*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>6.3814677847949675</v>
+      </c>
+      <c r="G17" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C18">
         <f>'Scintillation Counter Results'!C18/60</f>
@@ -4950,20 +5997,20 @@
         <v>46</v>
       </c>
       <c r="F18" s="1">
-        <f>C18*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>8.4308121347364704</v>
-      </c>
-      <c r="G18" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
+        <f>C18*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>5.7094051864191471</v>
+      </c>
+      <c r="G18" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="16" t="s">
         <v>108</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C19">
         <f>'Scintillation Counter Results'!C19/60</f>
@@ -4973,156 +6020,12 @@
         <v>46</v>
       </c>
       <c r="F19" s="1">
-        <f>C19*'Calibration Data'!$B$65+'Calibration Data'!$B$64</f>
-        <v>9.1195785372254115</v>
-      </c>
-      <c r="G19" s="18">
-        <f>'Calibration Data'!$B$54</f>
-        <v>0.23250006226253306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>109</v>
+        <f>C19*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
+        <v>6.1758426313242749</v>
+      </c>
+      <c r="G19" s="15">
+        <f>'Calibration Data'!$B$20</f>
+        <v>0.15745067498955981</v>
       </c>
     </row>
   </sheetData>
@@ -5134,11 +6037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,12 +6140,12 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5255,11 +6158,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.23692104164560329</v>
+        <v>0.16044459327587313</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -5294,7 +6197,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5307,11 +6210,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.29843203435934845</v>
+        <v>0.20210026952735508</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5346,7 +6249,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5359,11 +6262,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.19460774729474672</v>
+        <v>0.13178973317931225</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5398,7 +6301,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5411,11 +6314,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.35054007277290322</v>
+        <v>0.2373881990907124</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5450,7 +6353,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5463,11 +6366,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>0.34858112396036361</v>
+        <v>0.2360615851973531</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5502,7 +6405,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5515,11 +6418,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>0.37130493018582361</v>
+        <v>0.25145030636032095</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5554,7 +6457,7 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5567,11 +6470,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>0.98288874946070393</v>
+        <v>0.66561916386709408</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -5606,7 +6509,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5619,11 +6522,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>0.84341159400788024</v>
+        <v>0.57116425465991183</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -5658,7 +6561,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5671,11 +6574,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>1.0130565611738145</v>
+        <v>0.68604901782482719</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -5710,7 +6613,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5723,11 +6626,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>1.8718597205911987</v>
+        <v>1.2676365486735435</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -5762,7 +6665,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5775,11 +6678,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>1.9314117644924045</v>
+        <v>1.3079656110316662</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -5814,7 +6717,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5827,11 +6730,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>1.7821398649768827</v>
+        <v>1.2068776323576877</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -5866,7 +6769,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5879,11 +6782,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>4.3013480379028781</v>
+        <v>2.9129030992177456</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -5918,7 +6821,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5931,11 +6834,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>4.2155460799136417</v>
+        <v>2.8547974106886085</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -5970,7 +6873,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5983,11 +6886,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>4.6578767217850956</v>
+        <v>3.1543468278091376</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -6022,7 +6925,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -6032,11 +6935,11 @@
       </c>
       <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>9.4232156031690586</v>
+        <v>6.3814677847949675</v>
       </c>
       <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -6067,7 +6970,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -6077,11 +6980,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>8.4308121347364704</v>
+        <v>5.7094051864191471</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -6112,7 +7015,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
@@ -6124,11 +7027,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>9.1195785372254115</v>
+        <v>6.1758426313242749</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.23250006226253306</v>
+        <v>0.15745067498955981</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -6180,28 +7083,28 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/ExperimentDataTemplate _NoScript.xlsx
+++ b/Sorption Experiments/ExperimentDataTemplate _NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Parameters</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>cps-&gt;Bq (background, Stds, and RaStock 5)</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
+  </si>
+  <si>
+    <t>Ncount</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -789,11 +797,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227970112"/>
-        <c:axId val="235474464"/>
+        <c:axId val="189401656"/>
+        <c:axId val="189402048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227970112"/>
+        <c:axId val="189401656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,19 +823,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235474464"/>
+        <c:crossAx val="189402048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235474464"/>
+        <c:axId val="189402048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,21 +856,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227970112"/>
+        <c:crossAx val="189401656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -908,7 +913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1093,11 +1097,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235468584"/>
-        <c:axId val="235468976"/>
+        <c:axId val="193315384"/>
+        <c:axId val="193317736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235468584"/>
+        <c:axId val="193315384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,19 +1123,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235468976"/>
+        <c:crossAx val="193317736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235468976"/>
+        <c:axId val="193317736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,21 +1156,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235468584"/>
+        <c:crossAx val="193315384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1283,140 +1284,6 @@
         <row r="2">
           <cell r="D2">
             <v>1.1544444444444444</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>3.5588888888888888</v>
-          </cell>
-          <cell r="G3">
-            <v>0.42769009531437396</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>14.189444444444446</v>
-          </cell>
-          <cell r="G4">
-            <v>2.1384504765718702</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>27.261666666666667</v>
-          </cell>
-          <cell r="G5">
-            <v>4.2769009531437403</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>133.3138888888889</v>
-          </cell>
-          <cell r="G6">
-            <v>21.384504765718699</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>267.61888888888888</v>
-          </cell>
-          <cell r="G7">
-            <v>42.769009531437398</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1343.9216666666666</v>
-          </cell>
-          <cell r="G8">
-            <v>213.845047657187</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>5624.5516666666663</v>
-          </cell>
-          <cell r="G9">
-            <v>921.74647887323954</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0.1441714628506657</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0.52694379154793525</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2.2192609148432805</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>4.3002759088928997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>21.183118079488228</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>42.563623553202696</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>213.90420976854736</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>-0.86244335302746633</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>-0.46848823374427229</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>1.273270363178999</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>3.4150827376553288</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>20.791161420752843</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>42.796303780178178</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>219.142648643325</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>920.50054699429393</v>
           </cell>
         </row>
       </sheetData>
@@ -1697,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7067,15 +6934,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7106,8 +6973,20 @@
       <c r="J1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7144,7 +7023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -7185,7 +7064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -7226,7 +7105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -7267,7 +7146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -7308,7 +7187,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
